--- a/public/data-sinhvat.xlsx
+++ b/public/data-sinhvat.xlsx
@@ -508,13 +508,13 @@
     <t>dac diem hinh thai</t>
   </si>
   <si>
-    <t>dat diem sinh thai</t>
-  </si>
-  <si>
     <t>gia tri su dung</t>
   </si>
   <si>
     <t>sinh canh</t>
+  </si>
+  <si>
+    <t>dac diem sinh thai</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -847,7 +847,7 @@
     <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5"/>
     <col min="4" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
@@ -877,13 +877,13 @@
         <v>152</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10">
